--- a/tpc/compare.xlsx
+++ b/tpc/compare.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="20380" tabRatio="500"/>
+    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="20380" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="130404" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
   <si>
     <t>Thrift</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +47,75 @@
   </si>
   <si>
     <t>Serialized object size</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[java] Serialized size = 917</t>
+  </si>
+  <si>
+    <t>[protobuf] Serialized size = 217</t>
+  </si>
+  <si>
+    <t>[stax] Serialized size = 480</t>
+  </si>
+  <si>
+    <t>[thrift] Object dserialize time = 0.01616 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[thrift] Serialized size = 314</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[java] Object create time = 0.00034 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StAX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[thrift] Object serialize time = 0.01368 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[java] Object serialize time = 0.04224 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[java] Object dserialize time = 0.13187 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[stax] Object create time = 0.00032 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[stax] Object serialize time = 0.12417 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[stax] Object dserialize time = 0.15327 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[thrift] Object create time = 0.00050 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[protobuf] Object dserialize time = 0.06270 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[protobuf] Object serialize time = 0.02601 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protobuf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[protobuf] Object create time = 0.03132 mili</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,25 +245,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="461915048"/>
-        <c:axId val="475996200"/>
+        <c:axId val="631730168"/>
+        <c:axId val="631710488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="461915048"/>
+        <c:axId val="631730168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475996200"/>
+        <c:crossAx val="631710488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="475996200"/>
+        <c:axId val="631710488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -201,7 +271,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461915048"/>
+        <c:crossAx val="631730168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -284,25 +354,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="462757192"/>
-        <c:axId val="462754728"/>
+        <c:axId val="631818008"/>
+        <c:axId val="631821032"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="462757192"/>
+        <c:axId val="631818008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462754728"/>
+        <c:crossAx val="631821032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462754728"/>
+        <c:axId val="631821032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -310,7 +380,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462757192"/>
+        <c:crossAx val="631818008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -393,25 +463,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="462634504"/>
-        <c:axId val="461623800"/>
+        <c:axId val="631845896"/>
+        <c:axId val="631848920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="462634504"/>
+        <c:axId val="631845896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461623800"/>
+        <c:crossAx val="631848920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="461623800"/>
+        <c:axId val="631848920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -419,7 +489,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462634504"/>
+        <c:crossAx val="631845896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -502,25 +572,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="461598008"/>
-        <c:axId val="462865192"/>
+        <c:axId val="631874696"/>
+        <c:axId val="631877720"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="461598008"/>
+        <c:axId val="631874696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="462865192"/>
+        <c:crossAx val="631877720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="462865192"/>
+        <c:axId val="631877720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -528,7 +598,447 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="461598008"/>
+        <c:crossAx val="631874696"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Creating Object</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>StAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03132</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.00034</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.00032</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="537806920"/>
+        <c:axId val="537810088"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="537806920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537810088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="537810088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="537806920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serializing Object</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$5:$J$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>StAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01368</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.02601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.04224</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12417</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="449475256"/>
+        <c:axId val="449530808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449475256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="449530808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449530808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="449475256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deserializing Object</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$10:$J$10</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>StAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01616</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0627</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13187</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15327</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="449625736"/>
+        <c:axId val="449485752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="449625736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="449485752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="449485752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="449625736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Serialized object size</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$G$15:$J$15</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Thrift</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protobuf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>StAX</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$G$16:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>314.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>217.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>917.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>480.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="450216696"/>
+        <c:axId val="450818344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="450216696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450818344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="450818344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="450216696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -651,6 +1161,131 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3073400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>95033</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>3086100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>79483</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -991,8 +1626,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A2:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1098,6 +1733,222 @@
       </c>
       <c r="D20">
         <v>917</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:J16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="34.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H2">
+        <v>3.1320000000000001E-2</v>
+      </c>
+      <c r="I2">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="J2">
+        <v>3.2000000000000003E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>1.3679999999999999E-2</v>
+      </c>
+      <c r="H6">
+        <v>2.6009999999999998E-2</v>
+      </c>
+      <c r="I6">
+        <v>4.224E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.12417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>1.6160000000000001E-2</v>
+      </c>
+      <c r="H11">
+        <v>6.2700000000000006E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.13186999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.15326999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1</v>
+      </c>
+      <c r="I15" t="s">
+        <v>2</v>
+      </c>
+      <c r="J15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>314</v>
+      </c>
+      <c r="H16">
+        <v>217</v>
+      </c>
+      <c r="I16">
+        <v>917</v>
+      </c>
+      <c r="J16">
+        <v>480</v>
       </c>
     </row>
   </sheetData>

--- a/tpc/compare.xlsx
+++ b/tpc/compare.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="-20" windowWidth="29600" windowHeight="20380" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="27600" windowHeight="17440" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1736,7 +1736,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1754,8 +1753,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -1952,7 +1951,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/tpc/compare.xlsx
+++ b/tpc/compare.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="-80" windowWidth="27600" windowHeight="17440" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="-80" windowWidth="27600" windowHeight="17440" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="130404" refMode="R1C1" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
     <t>Thrift</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +117,18 @@
   </si>
   <si>
     <t>[protobuf] Object create time = 0.03132 mili</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protobuf on plain socket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Protobuf using HTTP/Jetty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Spring/RPC on Jetty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -123,12 +136,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -245,25 +252,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="631730168"/>
-        <c:axId val="631710488"/>
+        <c:axId val="506814152"/>
+        <c:axId val="506794488"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="631730168"/>
+        <c:axId val="506814152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631710488"/>
+        <c:crossAx val="506794488"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631710488"/>
+        <c:axId val="506794488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -271,7 +278,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631730168"/>
+        <c:crossAx val="506814152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -354,25 +361,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="631818008"/>
-        <c:axId val="631821032"/>
+        <c:axId val="506902248"/>
+        <c:axId val="506905272"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="631818008"/>
+        <c:axId val="506902248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631821032"/>
+        <c:crossAx val="506905272"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631821032"/>
+        <c:axId val="506905272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -380,7 +387,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631818008"/>
+        <c:crossAx val="506902248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -463,25 +470,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="631845896"/>
-        <c:axId val="631848920"/>
+        <c:axId val="506929848"/>
+        <c:axId val="506932872"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="631845896"/>
+        <c:axId val="506929848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631848920"/>
+        <c:crossAx val="506932872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631848920"/>
+        <c:axId val="506932872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -489,7 +496,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631845896"/>
+        <c:crossAx val="506929848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -572,25 +579,25 @@
           </c:val>
         </c:ser>
         <c:shape val="cylinder"/>
-        <c:axId val="631874696"/>
-        <c:axId val="631877720"/>
+        <c:axId val="506958936"/>
+        <c:axId val="506961960"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="631874696"/>
+        <c:axId val="506958936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631877720"/>
+        <c:crossAx val="506961960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="631877720"/>
+        <c:axId val="506961960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -598,7 +605,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="631874696"/>
+        <c:crossAx val="506958936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -683,24 +690,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="537806920"/>
-        <c:axId val="537810088"/>
+        <c:axId val="506998168"/>
+        <c:axId val="507001192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="537806920"/>
+        <c:axId val="506998168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537810088"/>
+        <c:crossAx val="507001192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="537810088"/>
+        <c:axId val="507001192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -708,7 +715,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="537806920"/>
+        <c:crossAx val="506998168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -793,24 +800,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="449475256"/>
-        <c:axId val="449530808"/>
+        <c:axId val="507027096"/>
+        <c:axId val="507030120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449475256"/>
+        <c:axId val="507027096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449530808"/>
+        <c:crossAx val="507030120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449530808"/>
+        <c:axId val="507030120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +825,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449475256"/>
+        <c:crossAx val="507027096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -903,24 +910,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="449625736"/>
-        <c:axId val="449485752"/>
+        <c:axId val="507054408"/>
+        <c:axId val="507057432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449625736"/>
+        <c:axId val="507054408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449485752"/>
+        <c:crossAx val="507057432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449485752"/>
+        <c:axId val="507057432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +935,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449625736"/>
+        <c:crossAx val="507054408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -949,9 +956,7 @@
   <c:lang val="en-US"/>
   <c:style val="18"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:title/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
@@ -1013,24 +1018,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="450216696"/>
-        <c:axId val="450818344"/>
+        <c:axId val="507081736"/>
+        <c:axId val="507084760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="450216696"/>
+        <c:axId val="507081736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450818344"/>
+        <c:crossAx val="507084760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="450818344"/>
+        <c:axId val="507084760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1038,9 +1043,104 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="450216696"/>
+        <c:crossAx val="507081736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="en-US"/>
+  <c:style val="18"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$1:$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Protobuf on plain socket</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Protobuf using HTTP/Jetty</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Spring/RPC on Jetty</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$1:$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.228</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="462444280"/>
+        <c:axId val="462447448"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="462444280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="462447448"/>
+        <c:crossesAt val="0.0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462447448"/>
+        <c:scaling>
+          <c:logBase val="10.0"/>
+          <c:orientation val="minMax"/>
+          <c:max val="200.0"/>
+          <c:min val="0.1"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:minorTickMark val="cross"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="462444280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:minorUnit val="10.0"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
@@ -1295,6 +1395,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1738,7 +1873,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
@@ -1753,7 +1887,7 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -1948,6 +2082,57 @@
       </c>
       <c r="J16">
         <v>480</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetCalcPr fullCalcOnLoad="1"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
+  <sheetPr published="0" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1">
+        <v>0.22800000000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3">
+        <v>106.8</v>
       </c>
     </row>
   </sheetData>
